--- a/Class 1 DSE/Reference_Olivier.xlsx
+++ b/Class 1 DSE/Reference_Olivier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martingeorgiev/Documents/One Drive/OneDrive/Documents/TUD/Fourth Year BS/DSE/MIdterm report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA7BD323-E464-7441-85E9-13E887B8211F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{AA7BD323-E464-7441-85E9-13E887B8211F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{71D9269F-9922-194B-A4D4-A14E55B91D95}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{DDE92C94-5019-484D-94E7-6F8033AD1ADC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{DDE92C94-5019-484D-94E7-6F8033AD1ADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Piper PA-46</t>
   </si>
@@ -76,6 +76,72 @@
   </si>
   <si>
     <t>Fuel cap [L]</t>
+  </si>
+  <si>
+    <t>FULL LIST</t>
+  </si>
+  <si>
+    <t>Beechcraft Baron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beechcraft G36 Bonanza </t>
+  </si>
+  <si>
+    <t>Bellanca 17-30 Super Viking</t>
+  </si>
+  <si>
+    <t>Cessna 172R</t>
+  </si>
+  <si>
+    <t>Cessna 206</t>
+  </si>
+  <si>
+    <t>Lancair IV-P</t>
+  </si>
+  <si>
+    <t>Mooney M20V Ultra</t>
+  </si>
+  <si>
+    <t>Partenavia P.68</t>
+  </si>
+  <si>
+    <t>Piper model PA-28</t>
+  </si>
+  <si>
+    <t>Piper PA-23</t>
+  </si>
+  <si>
+    <t>Piper PA-31 Navajo</t>
+  </si>
+  <si>
+    <t>Pipistrel Panthera</t>
+  </si>
+  <si>
+    <t>Socata TBM 700C2</t>
+  </si>
+  <si>
+    <t>Piper PA-34 seneca</t>
+  </si>
+  <si>
+    <t>Cessna 310</t>
+  </si>
+  <si>
+    <t>Cessna 340A</t>
+  </si>
+  <si>
+    <t>Cessna T240 TTX</t>
+  </si>
+  <si>
+    <t>Cessna cardinal RG</t>
+  </si>
+  <si>
+    <t>Let L-200 Morava</t>
+  </si>
+  <si>
+    <t>OEW</t>
+  </si>
+  <si>
+    <t>MTOW</t>
   </si>
 </sst>
 </file>
@@ -435,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0626C6BC-55BB-FC44-92B1-1620C858D09C}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,6 +737,270 @@
         <v>245</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>1828</v>
+      </c>
+      <c r="C17">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1193</v>
+      </c>
+      <c r="C18">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1043</v>
+      </c>
+      <c r="C19">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>736</v>
+      </c>
+      <c r="C20">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>987</v>
+      </c>
+      <c r="C21">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1021</v>
+      </c>
+      <c r="C22">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1500</v>
+      </c>
+      <c r="C23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1420</v>
+      </c>
+      <c r="C24">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>998</v>
+      </c>
+      <c r="C25">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1067</v>
+      </c>
+      <c r="C26">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1230</v>
+      </c>
+      <c r="C27">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>701</v>
+      </c>
+      <c r="C28">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1442</v>
+      </c>
+      <c r="C29">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1782</v>
+      </c>
+      <c r="C30">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>815</v>
+      </c>
+      <c r="C31">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2097</v>
+      </c>
+      <c r="C32">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1457</v>
+      </c>
+      <c r="C33">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>1045</v>
+      </c>
+      <c r="C34">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>1293</v>
+      </c>
+      <c r="C35">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>1780</v>
+      </c>
+      <c r="C36">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>1134</v>
+      </c>
+      <c r="C37">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>680</v>
+      </c>
+      <c r="C38">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>1360</v>
+      </c>
+      <c r="C39">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
